--- a/REGULAR/OJT/FERMA, ELIZA.xlsx
+++ b/REGULAR/OJT/FERMA, ELIZA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7D33EE-7561-43BC-A5F9-22D1ACA1139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1299,7 +1298,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1341,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1405,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1465,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1531,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1594,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1692,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1751,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1816,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1859,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1934,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2120,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2186,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2244,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2310,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2366,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2441,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2484,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2550,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2606,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2704,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2767,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2816,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2834,25 +2833,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K381" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K381" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2864,13 +2863,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2879,14 +2878,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3190,7 +3189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3200,7 +3199,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3208,34 +3207,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K381"/>
+  <dimension ref="A2:M381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4152" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4155" topLeftCell="A349"/>
+      <selection activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3255,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3276,7 +3275,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3294,7 +3293,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3302,7 +3301,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3315,7 +3314,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3332,7 +3331,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3376,7 +3375,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>229.56100000000001</v>
+        <v>235.81100000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3386,12 +3385,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>349.767</v>
+        <v>356.017</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="44">
+        <f>SUM(E9,I9)</f>
+        <v>591.82799999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3413,7 +3416,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
@@ -3433,7 +3436,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3456,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>46</v>
       </c>
@@ -3471,7 +3474,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>47</v>
       </c>
@@ -3495,7 +3498,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>50</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>51</v>
       </c>
@@ -3541,7 +3544,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>53</v>
       </c>
@@ -3559,7 +3562,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35796</v>
       </c>
@@ -3579,7 +3582,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35827</v>
       </c>
@@ -3599,7 +3602,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35855</v>
       </c>
@@ -3619,7 +3622,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35886</v>
       </c>
@@ -3639,7 +3642,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35916</v>
       </c>
@@ -3659,7 +3662,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35947</v>
       </c>
@@ -3679,7 +3682,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35977</v>
       </c>
@@ -3699,7 +3702,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36008</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36039</v>
       </c>
@@ -3739,7 +3742,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36069</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36100</v>
       </c>
@@ -3779,7 +3782,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36130</v>
       </c>
@@ -3803,7 +3806,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>54</v>
       </c>
@@ -3825,7 +3828,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36161</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36192</v>
       </c>
@@ -3865,7 +3868,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36220</v>
       </c>
@@ -3885,7 +3888,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36251</v>
       </c>
@@ -3905,7 +3908,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36281</v>
       </c>
@@ -3925,7 +3928,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36312</v>
       </c>
@@ -3945,7 +3948,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36342</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36373</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36404</v>
       </c>
@@ -4005,7 +4008,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36434</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36465</v>
       </c>
@@ -4045,7 +4048,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36495</v>
       </c>
@@ -4069,7 +4072,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>55</v>
       </c>
@@ -4091,7 +4094,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36526</v>
       </c>
@@ -4111,7 +4114,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36557</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36586</v>
       </c>
@@ -4157,7 +4160,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36617</v>
       </c>
@@ -4177,7 +4180,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36647</v>
       </c>
@@ -4197,7 +4200,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36678</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36708</v>
       </c>
@@ -4243,7 +4246,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36739</v>
       </c>
@@ -4263,7 +4266,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36770</v>
       </c>
@@ -4283,7 +4286,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36800</v>
       </c>
@@ -4303,7 +4306,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36831</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36861</v>
       </c>
@@ -4349,7 +4352,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>56</v>
       </c>
@@ -4371,7 +4374,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36892</v>
       </c>
@@ -4391,7 +4394,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36923</v>
       </c>
@@ -4411,7 +4414,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36951</v>
       </c>
@@ -4431,7 +4434,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36982</v>
       </c>
@@ -4451,7 +4454,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37012</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37043</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37073</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37104</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37135</v>
       </c>
@@ -4579,7 +4582,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37165</v>
       </c>
@@ -4603,7 +4606,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37196</v>
       </c>
@@ -4627,7 +4630,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37226</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>57</v>
       </c>
@@ -4675,7 +4678,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37257</v>
       </c>
@@ -4695,7 +4698,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37288</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37316</v>
       </c>
@@ -4747,7 +4750,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>65</v>
@@ -4769,7 +4772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37347</v>
       </c>
@@ -4793,7 +4796,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37377</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>78</v>
@@ -4841,7 +4844,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>84</v>
@@ -4863,7 +4866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>88</v>
@@ -4883,7 +4886,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37408</v>
       </c>
@@ -4903,7 +4906,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37438</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37469</v>
       </c>
@@ -4953,7 +4956,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37500</v>
       </c>
@@ -4977,7 +4980,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37530</v>
       </c>
@@ -5001,7 +5004,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37561</v>
       </c>
@@ -5021,7 +5024,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37591</v>
       </c>
@@ -5041,7 +5044,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>104</v>
       </c>
@@ -5063,7 +5066,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37622</v>
       </c>
@@ -5083,7 +5086,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37653</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37681</v>
       </c>
@@ -5129,7 +5132,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37712</v>
       </c>
@@ -5149,7 +5152,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37742</v>
       </c>
@@ -5169,7 +5172,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37773</v>
       </c>
@@ -5189,7 +5192,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37803</v>
       </c>
@@ -5209,7 +5212,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37834</v>
       </c>
@@ -5229,7 +5232,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37865</v>
       </c>
@@ -5249,7 +5252,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37895</v>
       </c>
@@ -5269,7 +5272,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37926</v>
       </c>
@@ -5289,7 +5292,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37956</v>
       </c>
@@ -5309,7 +5312,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>103</v>
       </c>
@@ -5331,7 +5334,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37987</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38018</v>
       </c>
@@ -5377,7 +5380,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38047</v>
       </c>
@@ -5397,7 +5400,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38078</v>
       </c>
@@ -5417,7 +5420,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38108</v>
       </c>
@@ -5437,7 +5440,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38139</v>
       </c>
@@ -5457,7 +5460,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38169</v>
       </c>
@@ -5477,7 +5480,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38200</v>
       </c>
@@ -5497,7 +5500,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38231</v>
       </c>
@@ -5517,7 +5520,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38261</v>
       </c>
@@ -5537,7 +5540,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38292</v>
       </c>
@@ -5557,7 +5560,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38322</v>
       </c>
@@ -5581,7 +5584,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>102</v>
       </c>
@@ -5603,7 +5606,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38353</v>
       </c>
@@ -5623,7 +5626,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38384</v>
       </c>
@@ -5643,7 +5646,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38412</v>
       </c>
@@ -5663,7 +5666,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38443</v>
       </c>
@@ -5683,7 +5686,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38473</v>
       </c>
@@ -5703,7 +5706,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38504</v>
       </c>
@@ -5723,7 +5726,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38534</v>
       </c>
@@ -5743,7 +5746,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38565</v>
       </c>
@@ -5763,7 +5766,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38596</v>
       </c>
@@ -5783,7 +5786,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38626</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38657</v>
       </c>
@@ -5829,7 +5832,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38687</v>
       </c>
@@ -5849,7 +5852,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>101</v>
       </c>
@@ -5871,7 +5874,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38718</v>
       </c>
@@ -5891,7 +5894,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38749</v>
       </c>
@@ -5911,7 +5914,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38777</v>
       </c>
@@ -5931,7 +5934,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38808</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>110</v>
@@ -5979,7 +5982,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38838</v>
       </c>
@@ -5999,7 +6002,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38869</v>
       </c>
@@ -6019,7 +6022,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38899</v>
       </c>
@@ -6039,7 +6042,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38930</v>
       </c>
@@ -6059,7 +6062,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38961</v>
       </c>
@@ -6079,7 +6082,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38991</v>
       </c>
@@ -6099,7 +6102,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39022</v>
       </c>
@@ -6119,7 +6122,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39052</v>
       </c>
@@ -6143,7 +6146,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>100</v>
       </c>
@@ -6165,7 +6168,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39083</v>
       </c>
@@ -6185,7 +6188,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39114</v>
       </c>
@@ -6205,7 +6208,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39142</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>113</v>
@@ -6253,7 +6256,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39173</v>
       </c>
@@ -6273,7 +6276,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39203</v>
       </c>
@@ -6297,7 +6300,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39234</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39264</v>
       </c>
@@ -6343,7 +6346,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39295</v>
       </c>
@@ -6363,7 +6366,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39326</v>
       </c>
@@ -6383,7 +6386,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39356</v>
       </c>
@@ -6403,7 +6406,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39387</v>
       </c>
@@ -6423,7 +6426,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39417</v>
       </c>
@@ -6443,7 +6446,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>99</v>
       </c>
@@ -6465,7 +6468,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39448</v>
       </c>
@@ -6485,7 +6488,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39479</v>
       </c>
@@ -6505,7 +6508,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39508</v>
       </c>
@@ -6525,7 +6528,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39539</v>
       </c>
@@ -6545,7 +6548,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39569</v>
       </c>
@@ -6565,7 +6568,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39600</v>
       </c>
@@ -6585,7 +6588,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39630</v>
       </c>
@@ -6605,7 +6608,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39661</v>
       </c>
@@ -6625,7 +6628,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39692</v>
       </c>
@@ -6645,7 +6648,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39722</v>
       </c>
@@ -6665,7 +6668,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39753</v>
       </c>
@@ -6685,7 +6688,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39783</v>
       </c>
@@ -6709,7 +6712,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="48" t="s">
         <v>98</v>
       </c>
@@ -6731,7 +6734,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39814</v>
       </c>
@@ -6751,7 +6754,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39845</v>
       </c>
@@ -6771,7 +6774,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39873</v>
       </c>
@@ -6791,7 +6794,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39904</v>
       </c>
@@ -6811,7 +6814,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39934</v>
       </c>
@@ -6831,7 +6834,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39965</v>
       </c>
@@ -6851,7 +6854,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39995</v>
       </c>
@@ -6871,7 +6874,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40026</v>
       </c>
@@ -6891,7 +6894,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>40057</v>
       </c>
@@ -6911,7 +6914,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>40087</v>
       </c>
@@ -6931,7 +6934,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>40118</v>
       </c>
@@ -6951,7 +6954,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40148</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>58</v>
@@ -6995,7 +6998,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>97</v>
       </c>
@@ -7013,7 +7016,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40179</v>
       </c>
@@ -7033,7 +7036,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40210</v>
       </c>
@@ -7053,7 +7056,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40238</v>
       </c>
@@ -7073,7 +7076,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40269</v>
       </c>
@@ -7093,7 +7096,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40299</v>
       </c>
@@ -7113,7 +7116,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40330</v>
       </c>
@@ -7133,7 +7136,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40360</v>
       </c>
@@ -7153,7 +7156,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40391</v>
       </c>
@@ -7173,7 +7176,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40422</v>
       </c>
@@ -7193,7 +7196,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40452</v>
       </c>
@@ -7213,7 +7216,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40483</v>
       </c>
@@ -7233,7 +7236,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40513</v>
       </c>
@@ -7257,7 +7260,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>96</v>
       </c>
@@ -7279,7 +7282,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40544</v>
       </c>
@@ -7299,7 +7302,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>40575</v>
       </c>
@@ -7319,7 +7322,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40603</v>
       </c>
@@ -7339,7 +7342,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40634</v>
       </c>
@@ -7359,7 +7362,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40664</v>
       </c>
@@ -7379,7 +7382,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40695</v>
       </c>
@@ -7399,7 +7402,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40725</v>
       </c>
@@ -7419,7 +7422,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40756</v>
       </c>
@@ -7439,7 +7442,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40787</v>
       </c>
@@ -7459,7 +7462,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40817</v>
       </c>
@@ -7479,7 +7482,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40848</v>
       </c>
@@ -7499,7 +7502,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40878</v>
       </c>
@@ -7523,7 +7526,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="48" t="s">
         <v>95</v>
       </c>
@@ -7545,7 +7548,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40909</v>
       </c>
@@ -7565,7 +7568,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40940</v>
       </c>
@@ -7585,7 +7588,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40969</v>
       </c>
@@ -7605,7 +7608,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41000</v>
       </c>
@@ -7625,7 +7628,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41030</v>
       </c>
@@ -7645,7 +7648,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>41061</v>
       </c>
@@ -7665,7 +7668,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41091</v>
       </c>
@@ -7685,7 +7688,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41122</v>
       </c>
@@ -7705,7 +7708,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41153</v>
       </c>
@@ -7725,7 +7728,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41183</v>
       </c>
@@ -7745,7 +7748,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41214</v>
       </c>
@@ -7765,7 +7768,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41244</v>
       </c>
@@ -7789,7 +7792,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>94</v>
       </c>
@@ -7811,7 +7814,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41275</v>
       </c>
@@ -7831,7 +7834,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41306</v>
       </c>
@@ -7851,7 +7854,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41334</v>
       </c>
@@ -7871,7 +7874,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41365</v>
       </c>
@@ -7891,7 +7894,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41395</v>
       </c>
@@ -7911,7 +7914,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41426</v>
       </c>
@@ -7931,7 +7934,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41456</v>
       </c>
@@ -7951,7 +7954,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41487</v>
       </c>
@@ -7971,7 +7974,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41518</v>
       </c>
@@ -7991,7 +7994,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41548</v>
       </c>
@@ -8011,7 +8014,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41579</v>
       </c>
@@ -8031,7 +8034,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41609</v>
       </c>
@@ -8055,7 +8058,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>93</v>
       </c>
@@ -8077,7 +8080,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41640</v>
       </c>
@@ -8097,7 +8100,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41671</v>
       </c>
@@ -8117,7 +8120,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>41699</v>
       </c>
@@ -8137,7 +8140,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41730</v>
       </c>
@@ -8157,7 +8160,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41760</v>
       </c>
@@ -8177,7 +8180,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41791</v>
       </c>
@@ -8197,7 +8200,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41821</v>
       </c>
@@ -8217,7 +8220,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41852</v>
       </c>
@@ -8237,7 +8240,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41883</v>
       </c>
@@ -8257,7 +8260,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41913</v>
       </c>
@@ -8277,7 +8280,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41944</v>
       </c>
@@ -8297,7 +8300,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41974</v>
       </c>
@@ -8321,7 +8324,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="48" t="s">
         <v>92</v>
       </c>
@@ -8343,7 +8346,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>42005</v>
       </c>
@@ -8363,7 +8366,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>42036</v>
       </c>
@@ -8383,7 +8386,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42064</v>
       </c>
@@ -8403,7 +8406,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42095</v>
       </c>
@@ -8423,7 +8426,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42125</v>
       </c>
@@ -8443,7 +8446,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>42156</v>
       </c>
@@ -8463,7 +8466,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>42186</v>
       </c>
@@ -8483,7 +8486,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42217</v>
       </c>
@@ -8503,7 +8506,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42248</v>
       </c>
@@ -8523,7 +8526,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>42278</v>
       </c>
@@ -8543,7 +8546,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42309</v>
       </c>
@@ -8563,7 +8566,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42339</v>
       </c>
@@ -8587,7 +8590,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
         <v>91</v>
       </c>
@@ -8609,7 +8612,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42370</v>
       </c>
@@ -8629,7 +8632,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>42401</v>
       </c>
@@ -8649,7 +8652,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42430</v>
       </c>
@@ -8669,7 +8672,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42461</v>
       </c>
@@ -8689,7 +8692,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42491</v>
       </c>
@@ -8709,7 +8712,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42522</v>
       </c>
@@ -8729,7 +8732,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42552</v>
       </c>
@@ -8749,7 +8752,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42583</v>
       </c>
@@ -8769,7 +8772,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42614</v>
       </c>
@@ -8789,7 +8792,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42644</v>
       </c>
@@ -8809,7 +8812,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42675</v>
       </c>
@@ -8829,7 +8832,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42705</v>
       </c>
@@ -8853,7 +8856,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>90</v>
       </c>
@@ -8875,7 +8878,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42736</v>
       </c>
@@ -8895,7 +8898,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42767</v>
       </c>
@@ -8915,7 +8918,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42795</v>
       </c>
@@ -8935,7 +8938,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42826</v>
       </c>
@@ -8955,7 +8958,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42856</v>
       </c>
@@ -8975,7 +8978,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42887</v>
       </c>
@@ -8995,7 +8998,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42917</v>
       </c>
@@ -9015,7 +9018,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42948</v>
       </c>
@@ -9035,7 +9038,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42979</v>
       </c>
@@ -9055,7 +9058,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>43009</v>
       </c>
@@ -9075,7 +9078,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>43040</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43070</v>
       </c>
@@ -9123,7 +9126,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>120</v>
       </c>
@@ -9145,7 +9148,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43101</v>
       </c>
@@ -9165,7 +9168,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43132</v>
       </c>
@@ -9185,7 +9188,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43160</v>
       </c>
@@ -9205,7 +9208,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43191</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43221</v>
       </c>
@@ -9251,7 +9254,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43252</v>
       </c>
@@ -9271,7 +9274,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>43282</v>
       </c>
@@ -9291,7 +9294,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43313</v>
       </c>
@@ -9311,7 +9314,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43344</v>
       </c>
@@ -9331,7 +9334,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43374</v>
       </c>
@@ -9351,7 +9354,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43405</v>
       </c>
@@ -9371,7 +9374,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43435</v>
       </c>
@@ -9395,7 +9398,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="48" t="s">
         <v>124</v>
       </c>
@@ -9413,7 +9416,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43466</v>
       </c>
@@ -9433,7 +9436,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43497</v>
       </c>
@@ -9453,7 +9456,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43525</v>
       </c>
@@ -9473,7 +9476,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43556</v>
       </c>
@@ -9493,7 +9496,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43586</v>
       </c>
@@ -9513,7 +9516,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43617</v>
       </c>
@@ -9533,7 +9536,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43647</v>
       </c>
@@ -9553,7 +9556,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43678</v>
       </c>
@@ -9573,7 +9576,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43709</v>
       </c>
@@ -9593,7 +9596,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43739</v>
       </c>
@@ -9613,7 +9616,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43770</v>
       </c>
@@ -9633,7 +9636,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43800</v>
       </c>
@@ -9657,7 +9660,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>125</v>
       </c>
@@ -9675,7 +9678,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43831</v>
       </c>
@@ -9695,7 +9698,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43862</v>
       </c>
@@ -9715,7 +9718,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43891</v>
       </c>
@@ -9735,7 +9738,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43922</v>
       </c>
@@ -9755,7 +9758,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43952</v>
       </c>
@@ -9775,7 +9778,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43983</v>
       </c>
@@ -9795,7 +9798,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44013</v>
       </c>
@@ -9815,7 +9818,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44044</v>
       </c>
@@ -9835,7 +9838,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>44075</v>
       </c>
@@ -9855,7 +9858,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>44105</v>
       </c>
@@ -9875,7 +9878,7 @@
       <c r="J320" s="12"/>
       <c r="K320" s="15"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>44136</v>
       </c>
@@ -9895,7 +9898,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>44166</v>
       </c>
@@ -9919,7 +9922,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
         <v>127</v>
       </c>
@@ -9937,7 +9940,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44197</v>
       </c>
@@ -9957,7 +9960,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>44228</v>
       </c>
@@ -9977,7 +9980,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44256</v>
       </c>
@@ -9997,7 +10000,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44287</v>
       </c>
@@ -10017,7 +10020,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44317</v>
       </c>
@@ -10037,7 +10040,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44348</v>
       </c>
@@ -10057,7 +10060,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44378</v>
       </c>
@@ -10077,7 +10080,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44409</v>
       </c>
@@ -10097,7 +10100,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44440</v>
       </c>
@@ -10117,7 +10120,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44470</v>
       </c>
@@ -10137,7 +10140,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44501</v>
       </c>
@@ -10157,7 +10160,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44531</v>
       </c>
@@ -10181,7 +10184,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>126</v>
       </c>
@@ -10199,7 +10202,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44562</v>
       </c>
@@ -10219,7 +10222,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44593</v>
       </c>
@@ -10239,7 +10242,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44621</v>
       </c>
@@ -10259,7 +10262,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44652</v>
       </c>
@@ -10279,7 +10282,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44682</v>
       </c>
@@ -10299,7 +10302,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44713</v>
       </c>
@@ -10319,7 +10322,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44743</v>
       </c>
@@ -10339,7 +10342,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44774</v>
       </c>
@@ -10359,7 +10362,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44805</v>
       </c>
@@ -10379,7 +10382,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44835</v>
       </c>
@@ -10399,7 +10402,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44866</v>
       </c>
@@ -10419,7 +10422,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44896</v>
       </c>
@@ -10443,7 +10446,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
         <v>123</v>
       </c>
@@ -10461,7 +10464,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44927</v>
       </c>
@@ -10487,7 +10490,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44958</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44986</v>
       </c>
@@ -10533,7 +10536,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>45017</v>
       </c>
@@ -10553,7 +10556,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>45047</v>
       </c>
@@ -10573,97 +10576,107 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>45078</v>
       </c>
       <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>45108</v>
       </c>
       <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>45139</v>
       </c>
       <c r="B357" s="20"/>
-      <c r="C357" s="13"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>45170</v>
       </c>
       <c r="B358" s="20"/>
-      <c r="C358" s="13"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>45200</v>
       </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>45231</v>
       </c>
@@ -10681,7 +10694,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>45261</v>
       </c>
@@ -10699,7 +10712,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>45292</v>
       </c>
@@ -10717,7 +10730,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>45323</v>
       </c>
@@ -10735,7 +10748,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>45352</v>
       </c>
@@ -10753,7 +10766,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>45383</v>
       </c>
@@ -10771,7 +10784,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45413</v>
       </c>
@@ -10789,7 +10802,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>45444</v>
       </c>
@@ -10807,7 +10820,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>45474</v>
       </c>
@@ -10825,7 +10838,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>45505</v>
       </c>
@@ -10843,7 +10856,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>45536</v>
       </c>
@@ -10861,7 +10874,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>45566</v>
       </c>
@@ -10879,7 +10892,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45597</v>
       </c>
@@ -10897,7 +10910,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>45627</v>
       </c>
@@ -10915,7 +10928,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>45658</v>
       </c>
@@ -10933,7 +10946,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>45689</v>
       </c>
@@ -10951,7 +10964,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>45717</v>
       </c>
@@ -10969,7 +10982,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>45748</v>
       </c>
@@ -10987,7 +11000,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>45778</v>
       </c>
@@ -11005,7 +11018,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45809</v>
       </c>
@@ -11023,7 +11036,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45839</v>
       </c>
@@ -11041,7 +11054,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45870</v>
       </c>
@@ -11074,10 +11087,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11100,7 +11113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11108,21 +11121,21 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -11135,7 +11148,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11164,7 +11177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11190,17 +11203,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11221,7 +11234,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11248,7 +11261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11274,7 +11287,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11300,7 +11313,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11326,7 +11339,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11352,7 +11365,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11378,7 +11391,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11404,7 +11417,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11430,7 +11443,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11450,7 +11463,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11470,7 +11483,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11490,7 +11503,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11511,7 +11524,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11532,7 +11545,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11553,7 +11566,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11574,7 +11587,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11595,7 +11608,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11616,7 +11629,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11637,7 +11650,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11658,7 +11671,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11679,7 +11692,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11700,7 +11713,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11721,7 +11734,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11742,7 +11755,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11763,7 +11776,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11784,7 +11797,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11805,7 +11818,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11826,7 +11839,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11847,7 +11860,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11868,7 +11881,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11889,7 +11902,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11910,7 +11923,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11919,7 +11932,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11928,7 +11941,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11937,7 +11950,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11946,7 +11959,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11955,7 +11968,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11964,7 +11977,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11973,7 +11986,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11982,7 +11995,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11991,7 +12004,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12000,7 +12013,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12009,7 +12022,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12018,7 +12031,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12027,7 +12040,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12036,7 +12049,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12045,7 +12058,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12054,7 +12067,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12063,7 +12076,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12072,7 +12085,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12081,7 +12094,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12090,7 +12103,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12099,7 +12112,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12108,7 +12121,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12117,7 +12130,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12126,7 +12139,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12135,7 +12148,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12144,7 +12157,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12153,7 +12166,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12162,7 +12175,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12171,7 +12184,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
